--- a/7Rmart/src/test/resources/TestData.xlsx
+++ b/7Rmart/src/test/resources/TestData.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91799\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91799\git\7Rmart_Repo\7Rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06236FC8-1644-45C3-B683-FC6EE5ED1C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFFCC67-FB45-46EF-8829-82FAAEBD6A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9A18F6B-DF83-4FDB-A93C-70413489488C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E9A18F6B-DF83-4FDB-A93C-70413489488C}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUser" sheetId="2" r:id="rId2"/>
+    <sheet name="SubCategory" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -55,16 +58,57 @@
   </si>
   <si>
     <t>anandhu</t>
+  </si>
+  <si>
+    <t>UsernameValue</t>
+  </si>
+  <si>
+    <t>PasswordValue</t>
+  </si>
+  <si>
+    <t>Anandhu</t>
+  </si>
+  <si>
+    <t>Rudraivihan</t>
+  </si>
+  <si>
+    <t>SubCategoryName</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>addressvalue</t>
+  </si>
+  <si>
+    <t>phonevalue</t>
+  </si>
+  <si>
+    <t>emailvalue</t>
+  </si>
+  <si>
+    <t>Ayodhya Bhavan</t>
+  </si>
+  <si>
+    <t>sreedevisree@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +131,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086841AE-098D-4760-8A9B-E80AFD84DEEF}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -461,4 +511,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C6E78-0868-4AB2-9CCE-493F96072EA8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A631A2-18F9-4189-BE83-1AD9A7E43D57}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15849568-2DDB-4192-9516-4BAF964DBEE9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>11223345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F7EF623B-F395-46B5-BAF3-E14FD3891767}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>